--- a/data/trans_bre/P24_5_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_5_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,05</t>
+          <t>10,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,69</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,74</t>
+          <t>18,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,43</t>
+          <t>8,16</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>212,83%</t>
+          <t>17,02</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>95,27%</t>
+          <t>127,15%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>186,95%</t>
+          <t>92,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>110,6%</t>
+          <t>213,26%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>75,52%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>272,45%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,11; 18,13</t>
+          <t>3,29; 17,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,58; 12,8</t>
+          <t>1,31; 15,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,14; 20,4</t>
+          <t>10,75; 25,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,42; 15,08</t>
+          <t>0,24; 15,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>88,74; 463,73</t>
+          <t>9,38; 24,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,68; 223,0</t>
+          <t>24,52; 339,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>79,29; 380,87</t>
+          <t>4,81; 267,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>36,4; 248,15</t>
+          <t>78,32; 494,3</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 199,35</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>82,45; 719,62</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,81</t>
+          <t>16,74</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,3</t>
+          <t>20,28</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,4</t>
+          <t>14,03</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,46</t>
+          <t>19,85</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>198,68%</t>
+          <t>11,52</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>356,05%</t>
+          <t>258,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>151,96%</t>
+          <t>375,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>391,76%</t>
+          <t>152,27%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>384,01%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>142,94%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,01; 23,22</t>
+          <t>8,36; 24,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,53; 24,27</t>
+          <t>12,8; 28,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,13; 18,73</t>
+          <t>5,76; 22,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,98; 30,12</t>
+          <t>13,0; 27,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>69,5; 457,49</t>
+          <t>2,89; 19,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>147,22; 830,28</t>
+          <t>71,11; 696,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>50,51; 356,96</t>
+          <t>132,62; 932,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>166,18; 873,56</t>
+          <t>33,41; 408,39</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>134,36; 1076,87</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>25,0; 428,18</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,96</t>
+          <t>16,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,83</t>
+          <t>19,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,26</t>
+          <t>19,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>39,78%</t>
+          <t>23,6</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>348,78%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>186,86%</t>
+          <t>190,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>170,4%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>844,9%</t>
         </is>
       </c>
     </row>
@@ -868,40 +934,50 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,78; 22,16</t>
+          <t>-40,25; 31,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 25,59</t>
+          <t>-3,89; 34,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,31; 31,01</t>
+          <t>-4,12; 38,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,92; 34,38</t>
+          <t>7,95; 34,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-57,63; 369,97</t>
+          <t>9,68; 40,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,95; —</t>
+          <t>-79,13; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,87; 798,57</t>
+          <t>-42,93; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-35,26; 1252,88</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,26</t>
+          <t>11,8</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,15</t>
+          <t>13,87</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,01</t>
+          <t>16,9</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,68</t>
+          <t>14,15</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>158,84%</t>
+          <t>15,56</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>193,98%</t>
+          <t>125,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>172,3%</t>
+          <t>188,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>250,31%</t>
+          <t>182,78%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>193,1%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>236,63%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,89; 17,32</t>
+          <t>4,07; 17,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,21; 15,61</t>
+          <t>8,84; 18,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,09; 17,77</t>
+          <t>11,08; 22,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,82; 20,27</t>
+          <t>9,33; 19,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,85; 271,5</t>
+          <t>10,47; 21,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>99,28; 324,53</t>
+          <t>15,27; 268,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>94,72; 277,32</t>
+          <t>83,95; 349,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>138,58; 406,78</t>
+          <t>92,69; 328,63</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>95,01; 375,97</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>112,73; 439,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P24_5_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_5_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>10,12</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,07</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>18,71</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,16</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>17,02</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>127,15%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>92,33%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>213,26%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>75,52%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>272,45%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>10.12197313529294</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>9.127397305870534</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>18.17703408226485</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>8.440571044760993</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>16.5144478759786</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.271458620606426</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.077178982554786</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>2.163396430206118</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.7749784792720694</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>2.513573753988084</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>3,29; 17,2</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,31; 15,29</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>10,75; 25,86</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,24; 15,35</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>9,38; 24,71</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>24,52; 339,55</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>4,81; 267,23</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>78,32; 494,3</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>1,07; 199,35</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>82,45; 719,62</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>3.289238198970286</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>2.093455651344114</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>10.42338081113241</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.002417161576969665</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>8.304039534183099</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.2451990915459464</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.1139044748143249</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.7828021159402813</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.008842414930749033</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.7060826070323694</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>17.19511529258247</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>16.79995115842665</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>25.25837442955986</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>15.82546682297698</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>24.24158077977353</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>3.395543072834078</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>3.096651451809262</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>5.002590415766432</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.963401155281909</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>6.555630094563641</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>16,74</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>20,28</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>14,03</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>19,85</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>11,52</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>258,84%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>375,96%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>152,27%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>384,01%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>142,94%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>8,36; 24,66</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>12,8; 28,27</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,76; 22,77</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>13,0; 27,67</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>2,89; 19,79</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>71,11; 696,87</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>132,62; 932,13</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>33,41; 408,39</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>134,36; 1076,87</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>25,0; 428,18</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>16.73818877564105</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>20.15322603994839</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>12.61829947738859</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>19.31707448646617</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>11.87082200041991</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>2.588385429113654</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>3.762865958229979</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.261018250917737</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>3.665816872188593</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>1.434516717654551</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,88</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>16,28</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>19,67</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>19,52</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>23,6</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>11,16%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>190,94%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>170,4%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>844,9%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>8.356473415635374</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>12.32242658631818</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>3.616422557475568</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>12.12819278797063</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>3.519537449582681</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.7111349472032475</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>1.280384988758944</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.1390438174868535</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>1.131722298018875</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.2320589841207737</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-40,25; 31,32</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,89; 34,35</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,12; 38,3</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>7,95; 34,46</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>9,68; 40,74</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-79,13; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-42,93; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-35,26; 1252,88</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>24.65515463674719</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>27.76472921199841</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>21.57955377808842</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>26.99688980428251</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>20.78113331112867</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>6.968663317914373</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>9.693175522554681</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.48554749530716</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>10.52678772278033</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>4.271214006498646</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>11,8</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>13,87</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>16,9</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>14,15</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>15,56</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>125,98%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>188,23%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>182,78%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>193,1%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>236,63%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.880748345160916</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>18.18389649341568</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>21.04948271796424</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>20.68150450312611</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>23.86124687686263</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1116099384252965</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>2.520216021888712</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.705245409636356</v>
+      </c>
+      <c r="K10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>6.978481816971599</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>4,07; 17,36</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>8,84; 18,54</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>11,08; 22,13</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>9,33; 19,34</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>10,47; 21,5</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>15,27; 268,46</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>83,95; 349,17</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>92,69; 328,63</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>95,01; 375,97</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>112,73; 439,53</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-40.24898872341976</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2630971870811913</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.072871853483469</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>8.57625088588132</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>8.428168021238731</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.7912666948727219</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3051125510271325</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3687212213026957</v>
+      </c>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>31.32224325021465</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>37.04452597098793</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>40.21585176230739</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>36.02837368435205</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>41.8186636075495</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>11.78722079182588</v>
+      </c>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>11.79541581697347</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>14.5061972353272</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>16.19172288682679</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>14.27424018001995</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>15.48084731996734</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.259816344390748</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>2.060645670292687</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.705013769423415</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>1.943563449797373</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>2.244410142197033</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>4.068981143653525</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>9.60006213140881</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>10.3240586424836</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>9.458346576726063</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>10.15107876513373</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.1527289635561171</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.9712167587681548</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.8557006088933738</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.9472622015029402</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>1.060168103078033</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>17.3551955658785</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>19.19496106947625</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>21.33843042350948</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>19.34298293536303</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>21.22815139473373</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>2.684604501013539</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>3.823356482057351</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.079721444271434</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>3.908783849231379</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>4.249700408765293</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1103,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
